--- a/data excel.xlsx
+++ b/data excel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PYTHON-STREAMLIT\GALERY PYTHON STREAMLIT 2025\DATA LITERATUR\HARGA SAHAM SEBAGAI DEPENDEN\ROA TERHADAP HARGA SAHAM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PYTHON\GALERY PYTHON STREAMLIT 2025\DATA LITERATUR\HARGA SAHAM SEBAGAI DEPENDEN\ROA TERHADAP HARGA SAHAM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ADE699D-154A-4F6F-B037-5AD73910FB72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B61E259-F43E-4BCA-9A43-B3A62827C522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="86">
   <si>
     <t>No</t>
   </si>
@@ -169,6 +169,120 @@
   </si>
   <si>
     <t>ROA, ROE, NPM</t>
+  </si>
+  <si>
+    <t>https://journal-nusantara.id/index.php/EKOMA/article/view/5117</t>
+  </si>
+  <si>
+    <t>Pengaruh ROA, ROE, dan EPS Terhadap Harga Saham Perbankan Buku III Yang Tercatat di BEI</t>
+  </si>
+  <si>
+    <t>EKOMA: Jurnal Ekonomi, Manajemen, Akuntansi</t>
+  </si>
+  <si>
+    <t>Kenisha Arvianetta Sutantio dan Amelia Setiawan</t>
+  </si>
+  <si>
+    <t>Berpengaruh positif dan tidak signifikan</t>
+  </si>
+  <si>
+    <t>artikel tidak menyajikan r-square</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Vu9h6mIQO2YYo1C6uDHjVWVmX-dqRQ8t/view?usp=sharing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pengaruh ROA, ROE, EPS, Dan PER Terhadap Harga Saham Perusahaan Pertambangan Sub Sektor Coal Mining Di Bursa Efek Indonesia Tahun 2018-2022 </t>
+  </si>
+  <si>
+    <t>Economic Reviews Journal</t>
+  </si>
+  <si>
+    <t>Isah Amini Yasmin, Kosasih</t>
+  </si>
+  <si>
+    <t>https://www.mes-bogor.com/journal/index.php/mrj/article/view/560</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ns-iN5kBGGV01X6laM2JwVNf9y-B9DPv/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>ROA, ROE, EPS, PER</t>
+  </si>
+  <si>
+    <t>https://jurnal.kdi.or.id/index.php/eb/article/view/882</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1EXjpBh78eEdWSKxocekv8z6uEWvWVODe/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>eCo-Buss: Economy and Bussiness</t>
+  </si>
+  <si>
+    <t>Pengaruh ROA Dan ROE Terhadap Harga Saham di Bursa Efek Indonesia</t>
+  </si>
+  <si>
+    <t>Indah Lestari, Hurriyaturrohman Hurriyaturrohman, Muhamad Nur Rizqi</t>
+  </si>
+  <si>
+    <t>PENGARUH ROA, ROE, EPS, NPM TERHADAP HARGA SAHAM PADA PERUSAHAAN PERBANKAN YANG TERDAFTAR DI BURSA EFEK INDONESIA PERIODE 2017-2020</t>
+  </si>
+  <si>
+    <t>Jurnal Cakrawala Ilmiah</t>
+  </si>
+  <si>
+    <t>Herdi Hidayat, Mas Nur Mukmin, Yoyok Priyo Hutomo</t>
+  </si>
+  <si>
+    <t>https://www.bajangjournal.com/index.php/JCI/article/view/8170</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1FTfRkYBFsAo_V-OykPVO7QQ1sLUhXwft/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>ROA, ROE, EPS, NPM</t>
+  </si>
+  <si>
+    <t>Pengaruh ROA dan ROE terhadap Harga Saham pada Perusahaan Retail (Studi Kasus pada PT. Ace Hardware Indonesia Tbk, PT.Matahari Departemen Store Tbk dan PT. Midi Utama Indonesia LPPF periode Tahun 2017-2022).</t>
+  </si>
+  <si>
+    <t>Citra, Susiana Dewi Ratih Susiana, Margaretha Alinda Peni</t>
+  </si>
+  <si>
+    <t>Jurnal Ilmu Ekonomi Manajemen dan Akuntansi MH Thamrin</t>
+  </si>
+  <si>
+    <t>https://journalthamrin.com/index.php/ileka/article/view/2389</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/11d8ZboBYfREtYupRFE7TW_znDzvN0nGr/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>ANALISIS ROA DAN ROE TERHADAP RETURN SAHAM DENGAN HARGA SAHAM SEBAGAI VARIABEL INTERVENING Studi Kasus Perusahaan Sektor Semen yang Terdaftar di Indeks Saham Syariah Periode 2019-2022</t>
+  </si>
+  <si>
+    <t>JURRIE: Jurnal Riset Rumpun Ilmu Ekonomi</t>
+  </si>
+  <si>
+    <t>Maulana Ihsan Yusufi Suyatno, Rahmania Mustahidda, Astohar Astohar</t>
+  </si>
+  <si>
+    <t>https://prin.or.id/index.php/JURRIE/article/view/1446</t>
+  </si>
+  <si>
+    <t>WarpPLS</t>
+  </si>
+  <si>
+    <t>Ya</t>
+  </si>
+  <si>
+    <t>Ada (Harga Saham)</t>
+  </si>
+  <si>
+    <t>nilai r-square ada tapi belum jelas</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1yR4FGD68taciMmD9WnQegQ02XWRJPX98/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -213,7 +327,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -222,6 +336,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -505,35 +622,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="85.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="81.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="85.54296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="81.7265625" style="1" customWidth="1"/>
     <col min="5" max="5" width="28" style="1" customWidth="1"/>
     <col min="6" max="6" width="50" style="1" customWidth="1"/>
-    <col min="7" max="7" width="82.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="72.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="22.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="68.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="56.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="49.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="51.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="53.28515625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="52.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="53.42578125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="32.7109375" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="82.453125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="72.81640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22.453125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="68.54296875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="56.7265625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="49.7265625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="51.7265625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="53.26953125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="52.7265625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="53.453125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="32.7265625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -586,7 +703,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -636,7 +753,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -686,7 +803,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -739,7 +856,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -787,6 +904,312 @@
       </c>
       <c r="P5" s="1" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2024</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2024</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2024</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2024</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2024</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2023</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -799,6 +1222,18 @@
     <hyperlink ref="H4" r:id="rId6" xr:uid="{7A2EEE0B-41B4-49D0-9D97-98489B6718EC}"/>
     <hyperlink ref="G5" r:id="rId7" xr:uid="{35F1D82A-EBD1-4FED-9A4F-67D2274EF0C2}"/>
     <hyperlink ref="H5" r:id="rId8" xr:uid="{594E9161-6C56-4F83-B62B-531303966858}"/>
+    <hyperlink ref="G6" r:id="rId9" xr:uid="{066CBCC5-2F85-4821-8D25-240638706E45}"/>
+    <hyperlink ref="H6" r:id="rId10" xr:uid="{E5AD74D2-0FA3-489B-A9FA-6B35D6D496A9}"/>
+    <hyperlink ref="G7" r:id="rId11" xr:uid="{0387570F-B84C-4DA4-9BE5-CCEFCB343AA6}"/>
+    <hyperlink ref="H7" r:id="rId12" xr:uid="{8AB7B5D4-5ADA-422B-98C7-3FB76D72B468}"/>
+    <hyperlink ref="G8" r:id="rId13" xr:uid="{9232D87A-6E12-425B-97A2-CCE09DE543C9}"/>
+    <hyperlink ref="H8" r:id="rId14" xr:uid="{0CA3E400-6E3E-4EB2-A2FA-EE107CDAA468}"/>
+    <hyperlink ref="G9" r:id="rId15" xr:uid="{B4EA0FB3-FAC5-4EF4-9C76-BE8A93189BE1}"/>
+    <hyperlink ref="H9" r:id="rId16" xr:uid="{43E3CFF3-C391-42CD-819E-F67E475B62CB}"/>
+    <hyperlink ref="G10" r:id="rId17" xr:uid="{034D5139-E5E6-4D04-A272-83C96A1F6C29}"/>
+    <hyperlink ref="H10" r:id="rId18" xr:uid="{E5170C7B-F518-48DF-BE97-ED13B86F0193}"/>
+    <hyperlink ref="G11" r:id="rId19" xr:uid="{F6A8226B-C51E-4F43-9B16-DCE0B76044B5}"/>
+    <hyperlink ref="H11" r:id="rId20" xr:uid="{8E79856E-0236-4108-97AC-6F2A275A09B6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data excel.xlsx
+++ b/data excel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PYTHON\GALERY PYTHON STREAMLIT 2025\DATA LITERATUR\HARGA SAHAM SEBAGAI DEPENDEN\ROA TERHADAP HARGA SAHAM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PYTHON-STREAMLIT\GALERY PYTHON STREAMLIT 2025\DATA LITERATUR\HARGA SAHAM SEBAGAI DEPENDEN\ROA TERHADAP HARGA SAHAM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B61E259-F43E-4BCA-9A43-B3A62827C522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A5CF6C-EEE8-4157-8A55-ABBA93CAFF05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="144">
   <si>
     <t>No</t>
   </si>
@@ -283,6 +283,180 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1yR4FGD68taciMmD9WnQegQ02XWRJPX98/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>http://www.djournals.com/arbitrase/article/view/479</t>
+  </si>
+  <si>
+    <t>Asti Nur Aryanti, Palupi Permata Rahmi, Listri Herlina</t>
+  </si>
+  <si>
+    <t>ARBITRASE: Journal of Economics and Accounting</t>
+  </si>
+  <si>
+    <t>Pengaruh ROA, ROE, LDR, CAR, Dan NPL Terhadap Harga Saham Perbankan Yang Terdaftar di BEI</t>
+  </si>
+  <si>
+    <t>ROA, ROE, LDR, CAR, NPL</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1d_gPVrNYW7JAWhxr6BWJ_R3vKn15BeE2/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://jurnal.itscience.org/index.php/jebma/article/view/978</t>
+  </si>
+  <si>
+    <t>Jurnal Ekonomi Bisnis, Manajemen dan Akuntansi (Jebma)</t>
+  </si>
+  <si>
+    <t>Pengaruh EPS, ROA dan ROE terhadap Harga Saham pada Perusahaan Asuransi yang terdaftar di Bursa Efek Indonesia Periode 2015-2019</t>
+  </si>
+  <si>
+    <t>Tiara Ivandri Pratiwi, Muhammad Rivandi</t>
+  </si>
+  <si>
+    <t>EPS, ROA, ROE</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1xhhWkdQ_6GitvnABn05wa7TY3pLVcXWL/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1UXBwj8Jf2K2NNtrZhA-DNtG6AU3Spiwp/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://ejournal.unsrat.ac.id/index.php/emba/article/view/13108</t>
+  </si>
+  <si>
+    <t>Jurnal EMBA : Jurnal Riset Ekonomi, Manajemen, Bisnis dan Akuntansi</t>
+  </si>
+  <si>
+    <t>PENGARUH RETURN ON ASSET (ROA), NET PROFIT MARGIN (NPM), DAN EARNING PER SHARE (EPS) TERHADAP HARGA SAHAM PADA PERUSAHAAN PERBANKAN DI BURSA EFEK INDONESIA PERIODE 2011-2015</t>
+  </si>
+  <si>
+    <t>Rosdian Widiawati Watung, Ventje Ilat</t>
+  </si>
+  <si>
+    <t>ROA, NPM, EPS</t>
+  </si>
+  <si>
+    <t>PENGARUH RETURN ON ASSET (ROA), RETURN ON EQUITY (ROE), NET PROFIT MARGIN (NPM), DAN EARNING PER SHARE (EPS) TERHADAP HARGA SAHAM PERUSAHAAN YANG TERGABUNG DALAM INDEKS LQ45 DI BURSA EFEK INDONESIA PERIODE TAHUN 2013-2015</t>
+  </si>
+  <si>
+    <t>Gerald E. Y. Egam, Ventje Ilat, Sonny Pangerapan</t>
+  </si>
+  <si>
+    <t>https://ejournal.unsrat.ac.id/index.php/emba/article/view/15455</t>
+  </si>
+  <si>
+    <t>ROA, ROE, NPM, EPS</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/11LAHxLyBQb9TAoiDziXp0UVroFix9A2y/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://journal.ipm2kpe.or.id/index.php/COSTING/article/view/1660</t>
+  </si>
+  <si>
+    <t>Journal of Economic, Bussines and Accounting (COSTING)</t>
+  </si>
+  <si>
+    <t>Pengaruh Return On Asset (ROA) dan Debt To Equity Ratio (DER) Terhadap Harga Saham</t>
+  </si>
+  <si>
+    <t>Bayu Ramadhan, Nursito Nursito</t>
+  </si>
+  <si>
+    <t>Berpengaruh negatif dan signifikan</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1-tSBI7A_sOfQ4PXddCxtPlJBxXhe05gK/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1JypF0UbsXvgigDg6JZVfraDkqXCyM8um/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Jurnal Ilmu dan Riset Manajemen: JIRM</t>
+  </si>
+  <si>
+    <t>PENGARUH ROA, ROE, DAN EPS TERHADAP HARGA SAHAM PT. GARUDA INDONESIA Tbk</t>
+  </si>
+  <si>
+    <t>Vita Ariesta Dyana Santy, Triyonowati Triyonowati</t>
+  </si>
+  <si>
+    <t>https://jurnalmahasiswa.stiesia.ac.id/index.php/jirm/article/view/322</t>
+  </si>
+  <si>
+    <t>https://openjournal.unpam.ac.id/index.php/SKT/article/view/1096</t>
+  </si>
+  <si>
+    <t>Jurnal SEKURITAS (Saham, Ekonomi, Keuangan dan Investasi)</t>
+  </si>
+  <si>
+    <t>PENGARUH RETURN ON ASSET, RETURN ON EQUITY, NET PROFIT MARGIN DAN DEBT TO EQUITY RATIO TERHADAP HARGA SAHAM</t>
+  </si>
+  <si>
+    <t>Neneng Tita Amalya</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1xJoCbJWPh6eY1KhdTOieQuy1cbswk6y3/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>ROA, ROE, NPM, DER</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1BtoR3XtTgW_iwJag9K8FFLUOhtLY4bWR/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://journal.binus.ac.id/index.php/winners/article/view/642/0</t>
+  </si>
+  <si>
+    <t>Journal The WINNERS</t>
+  </si>
+  <si>
+    <t>Pengaruh Return on Assets dan Debt to Equity Ratio terhadap Harga Saham pada Institusi Finansial di Bursa Efek Indonesia</t>
+  </si>
+  <si>
+    <t>Rani Ramdhani</t>
+  </si>
+  <si>
+    <t>ROA, DER</t>
+  </si>
+  <si>
+    <t>PENGARUH ROA, ROE, DAN EPS TERHADAP HARGA SAHAM PADA PERUSAHAAN TRANSPORTASI</t>
+  </si>
+  <si>
+    <t>Suryani Ekawati, Tri Yuniati</t>
+  </si>
+  <si>
+    <t>https://jurnalmahasiswa.stiesia.ac.id/index.php/jirm/article/view/2995</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1VQ-6VMl7ntF8FHsbTeshqnzaRTnrGc4D/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Vk6G3K29R2yBbg8LwgBfrQoZ4zXTm2E-/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://journal3.uin-alauddin.ac.id/index.php/jiap/article/view/6927</t>
+  </si>
+  <si>
+    <t>SmartPLS</t>
+  </si>
+  <si>
+    <t>Jurnal Ilmiah Akuntansi Peradaban</t>
+  </si>
+  <si>
+    <t>PENGARUH RETURN ON ASSET (ROA) DAN DEBT TO EQUITY RATIO (DER) TERHADAP HARGA SAHAM DENGAN KEBIJAKAN DIVIDEN SEBAGAI VARIABEL INTERVENING</t>
+  </si>
+  <si>
+    <t>Lince Bulutoding, Rika Dwi Ayu Parmitasari, Muhammad Auliya’a Dahlan</t>
+  </si>
+  <si>
+    <t>ROA, DER, Kebijakan Dividen</t>
+  </si>
+  <si>
+    <t>Ada (Kebijakan Dividen)</t>
   </si>
 </sst>
 </file>
@@ -622,35 +796,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="I1" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.1796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.81640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="85.54296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="81.7265625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="85.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="81.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="28" style="1" customWidth="1"/>
     <col min="6" max="6" width="50" style="1" customWidth="1"/>
-    <col min="7" max="7" width="82.453125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="72.81640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="22.453125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="68.54296875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="56.7265625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="49.7265625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="51.7265625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="53.26953125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="52.7265625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="53.453125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="32.7265625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.1796875" style="1"/>
+    <col min="7" max="7" width="82.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="72.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="68.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="56.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="49.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="51.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="53.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="52.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="53.42578125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="32.7109375" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -703,7 +879,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -753,7 +929,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -803,7 +979,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -856,7 +1032,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -906,7 +1082,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -959,7 +1135,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1009,7 +1185,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1059,7 +1235,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1109,7 +1285,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1159,7 +1335,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1212,7 +1388,510 @@
         <v>84</v>
       </c>
     </row>
+    <row r="12" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0.29530000000000001</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2020</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2018</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L16" s="3">
+        <v>0.218</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2018</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L19" s="3">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2016</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2013</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L21" s="3">
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q21">
+    <sortCondition descending="1" ref="E2:E21"/>
+  </sortState>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" xr:uid="{AC19B82F-8925-462A-9174-A278DBF02EF5}"/>
     <hyperlink ref="G2" r:id="rId2" xr:uid="{02283B74-F26E-4A80-8E94-C2340FD763FC}"/>
@@ -1234,6 +1913,26 @@
     <hyperlink ref="H10" r:id="rId18" xr:uid="{E5170C7B-F518-48DF-BE97-ED13B86F0193}"/>
     <hyperlink ref="G11" r:id="rId19" xr:uid="{F6A8226B-C51E-4F43-9B16-DCE0B76044B5}"/>
     <hyperlink ref="H11" r:id="rId20" xr:uid="{8E79856E-0236-4108-97AC-6F2A275A09B6}"/>
+    <hyperlink ref="G12" r:id="rId21" xr:uid="{0CF9914B-35A2-4260-9E23-B131D5DE8B20}"/>
+    <hyperlink ref="H12" r:id="rId22" xr:uid="{2330D61A-F0FD-4E02-94D8-E7C2CC56A5F1}"/>
+    <hyperlink ref="G13" r:id="rId23" xr:uid="{554203FF-5110-4910-8462-54CADC3F9269}"/>
+    <hyperlink ref="H13" r:id="rId24" xr:uid="{CFEDC400-F789-4BCB-B7BD-78E7511F691E}"/>
+    <hyperlink ref="H20" r:id="rId25" xr:uid="{90A2C4AA-F241-4B05-AD23-2D240E9D5A92}"/>
+    <hyperlink ref="G20" r:id="rId26" xr:uid="{1893BB69-FDBB-4012-BC36-DCCB6BB0E0AB}"/>
+    <hyperlink ref="G18" r:id="rId27" xr:uid="{3B62FF72-D6D4-468A-9EFC-F614F9AE3AC6}"/>
+    <hyperlink ref="H18" r:id="rId28" xr:uid="{86DBA649-43A3-409E-9572-209818F37680}"/>
+    <hyperlink ref="G14" r:id="rId29" xr:uid="{3BC59268-AECA-408B-B063-A111B9EB45CF}"/>
+    <hyperlink ref="H14" r:id="rId30" xr:uid="{38D898A3-3C77-455A-9847-BE2B2BB1902F}"/>
+    <hyperlink ref="H19" r:id="rId31" xr:uid="{8DE6708A-9AEB-4091-A1D2-7E975F353594}"/>
+    <hyperlink ref="G19" r:id="rId32" xr:uid="{05E0E395-F650-4732-996E-27BD921213DF}"/>
+    <hyperlink ref="G16" r:id="rId33" xr:uid="{BAAEA523-79B2-42F9-8E80-CF388F73F088}"/>
+    <hyperlink ref="H16" r:id="rId34" xr:uid="{1CE2F190-2B4B-4CD5-BB3E-354B8FF6AA6A}"/>
+    <hyperlink ref="H21" r:id="rId35" xr:uid="{D650CF35-7018-49CE-BF34-DFD26C54E828}"/>
+    <hyperlink ref="G21" r:id="rId36" xr:uid="{1DA923CC-042D-4668-8F96-7A01AA66AE2A}"/>
+    <hyperlink ref="G15" r:id="rId37" xr:uid="{FC9D5A03-0E83-44CB-9A4F-B7AE01A2B95C}"/>
+    <hyperlink ref="H15" r:id="rId38" xr:uid="{F1AEE821-F994-41B9-A25E-416A2A7496BD}"/>
+    <hyperlink ref="H17" r:id="rId39" xr:uid="{2DD4133B-0754-4376-8374-3A7B516B069E}"/>
+    <hyperlink ref="G17" r:id="rId40" xr:uid="{1C810D60-3A93-4FCF-9044-AD0B10BB6689}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data excel.xlsx
+++ b/data excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PYTHON-STREAMLIT\GALERY PYTHON STREAMLIT 2025\DATA LITERATUR\HARGA SAHAM SEBAGAI DEPENDEN\ROA TERHADAP HARGA SAHAM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A5CF6C-EEE8-4157-8A55-ABBA93CAFF05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C79C98FF-6EE2-4F76-BC04-0E0D454A7553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -799,9 +799,9 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A21"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data excel.xlsx
+++ b/data excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PYTHON-STREAMLIT\GALERY PYTHON STREAMLIT 2025\DATA LITERATUR\HARGA SAHAM SEBAGAI DEPENDEN\ROA TERHADAP HARGA SAHAM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C79C98FF-6EE2-4F76-BC04-0E0D454A7553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{108B783E-506E-4ADC-8F6E-2341E603B6FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="197">
   <si>
     <t>No</t>
   </si>
@@ -457,6 +457,165 @@
   </si>
   <si>
     <t>Ada (Kebijakan Dividen)</t>
+  </si>
+  <si>
+    <t>PENGARUH RETURN ON ASSETS (ROA), RETURN ON EQUITY (ROE), DAN EARNING PER SHARE (EPS) TERHADAP HARGA SAHAM</t>
+  </si>
+  <si>
+    <t>Lina Faradilla Musfiro, Tri Yuniati</t>
+  </si>
+  <si>
+    <t>https://jurnalmahasiswa.stiesia.ac.id/index.php/jirm/article/view/3086</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1EyFEoeM_jEUf_atAmrCpu-lI3eryDjAd/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://e-jurnal.lppmunsera.org/index.php/Akuntansi/article/view/219</t>
+  </si>
+  <si>
+    <t>JAK (Jurnal Akuntansi): Kajian Ilmiah Akuntansi</t>
+  </si>
+  <si>
+    <t>PENGARUH LIKUIDITAS, PROFITABILITAS, dan SOLVABILITAS TERHADAP HARGA SAHAM</t>
+  </si>
+  <si>
+    <t>Santi Octaviani, Dahlia Komalasari</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1A_zSIXhXfoAyW5jdhyXZoxdZ4YBVF9fv/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>CR, ROA, DER</t>
+  </si>
+  <si>
+    <t>PENGARUH ROA, CAR, NPM, DAN LDR TERHADAP HARGA SAHAM BANK UMUM</t>
+  </si>
+  <si>
+    <t>Dys Alfina Putri, Prijati Prijati</t>
+  </si>
+  <si>
+    <t>https://jurnalmahasiswa.stiesia.ac.id/index.php/jirm/article/view/294</t>
+  </si>
+  <si>
+    <t>ROA,, CAR, NPM, LDR</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1LWhKWGa-vR7oJNFKr5dHt3f05nYYFR9z/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Pengaruh EVA, ROA, DER dan TATO Terhadap Harga Saham pada Perusahaan Makanan dan Minuman di BEI</t>
+  </si>
+  <si>
+    <t>Irawati Junaeni</t>
+  </si>
+  <si>
+    <t>Owner: Riset &amp; Jurnal Akuntansi</t>
+  </si>
+  <si>
+    <t>https://www.owner.polgan.ac.id/index.php/owner/article/view/33</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1TDs8FeU8ZMqZYRuTCBy8YM1jz-sgvT_E/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>EVA, ROA, DER, TATO</t>
+  </si>
+  <si>
+    <t>PENGARUH DER, ROA DAN ROE TERHADAP HARGA SAHAM PADA PERUSAHAAN FOOD AND BEVERAGE</t>
+  </si>
+  <si>
+    <t>Ariskha Nordiana, Budiyanto Budiyanto</t>
+  </si>
+  <si>
+    <t>https://jurnalmahasiswa.stiesia.ac.id/index.php/jirm/article/view/711</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1MPDGe1HkqvtwPESZxlPaRH6BvCVUEVd9/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>DER, ROA, ROE</t>
+  </si>
+  <si>
+    <t>Tidak Menyajikan Nilai R-Square</t>
+  </si>
+  <si>
+    <t>Jurnal Investasi</t>
+  </si>
+  <si>
+    <t>PENGARUH ROA, ROE &amp; PBV TERHADAP HARGA SAHAM PADA PERUSAHAAN</t>
+  </si>
+  <si>
+    <t>Dewi Untari, Suhendro Suhendro, Purnama Siddi</t>
+  </si>
+  <si>
+    <t>https://www.investasi.unwir.ac.id/index.php/investasi/article/view/81</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1KLZsIk3bZbEFd_dcMlkekYHRO3z69aOz/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>ROA, ROE, PBV</t>
+  </si>
+  <si>
+    <t>PENGARUH RETURN ON ASSET (ROA), PRICE EARING RATIO (PER), EARNING PER SHARE (EPS), DEBT TO EQUIY RATIO (DER) DAN PRICE TO BOOK VALUE (PBV) TERHADAP HARGA SAHAM PADA PT. BANK NEGARA INDONESIA (PERSERO) TBK, PERIODE 2005-2016</t>
+  </si>
+  <si>
+    <t>JPENSI: Jurnal Penelitian Ekonomi dan Akuntansi</t>
+  </si>
+  <si>
+    <t>Hani Fitria Rahmani</t>
+  </si>
+  <si>
+    <t>https://jurnalekonomi.unisla.ac.id/index.php/jpensi/article/view/220</t>
+  </si>
+  <si>
+    <t>ROA, PER, EPS, DER, PBV</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1a3O6ZMmN1MUqYqwwxTGroHxCW_edTaf2/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>PENGARUH CURRENT RATIO, DER, ROA DAN NPM TERHADAP HARGA SAHAM PADA PERUSAHAAN FOOD AND BEVERAGES YANG TERDAFTAR DI BEI (PERIODE 2013-2015)</t>
+  </si>
+  <si>
+    <t>Vera Ch.O. Manoppo, Bernhard . Tewal, Arrazi Bin Hasan Jan</t>
+  </si>
+  <si>
+    <t>https://ejournal.unsrat.ac.id/index.php/emba/article/view/16399</t>
+  </si>
+  <si>
+    <t>CR, DER, ROA, NPM</t>
+  </si>
+  <si>
+    <t>PENGARUH PROFITABILITAS TERHADAP HARGA SAHAM PADA PERUSAHAAN MAKANAN DAN MINUMAN YANG TERDAFTAR DI BURSA EFEK INDONESIA</t>
+  </si>
+  <si>
+    <t>JBI: Jurnal Bisnis Indonesia</t>
+  </si>
+  <si>
+    <t>Dinda Alfianti Aldini, Sonja Andarini</t>
+  </si>
+  <si>
+    <t>http://www.ejournal.upnjatim.ac.id/index.php/jbi/article/view/1070</t>
+  </si>
+  <si>
+    <t>GPM, OPM, ROA, ROE, EPS</t>
+  </si>
+  <si>
+    <t>Tidak Menyajikan Nilai R-Square dan tidak diberitahu software apa yang digunakan</t>
+  </si>
+  <si>
+    <t>Aktsar: Jurnal Akuntansi Syariah</t>
+  </si>
+  <si>
+    <t>Pengaruh Return on Asset, Net Profit Margin, dan Earning Per Share Terhadap Harga Saham Perusahaan Rokok Go Public</t>
+  </si>
+  <si>
+    <t>Irsad Andriyanto, Silvia Khoirunnisa</t>
+  </si>
+  <si>
+    <t>https://journal.iainkudus.ac.id/index.php/aktsar/article/view/5158</t>
   </si>
 </sst>
 </file>
@@ -796,12 +955,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1596,34 +1755,34 @@
         <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="E16" s="1">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>125</v>
+        <v>32</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L16" s="3">
-        <v>0.218</v>
+        <v>26</v>
+      </c>
+      <c r="L16" s="4">
+        <v>0.72</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>12</v>
@@ -1638,7 +1797,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1646,35 +1805,32 @@
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="E17" s="1">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>137</v>
+        <v>174</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>136</v>
+        <v>175</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>138</v>
+        <v>24</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L17" s="3">
-        <v>0.34599999999999997</v>
-      </c>
       <c r="M17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1685,10 +1841,13 @@
         <v>12</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1696,34 +1855,34 @@
         <v>15</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>100</v>
+        <v>178</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>104</v>
+        <v>177</v>
       </c>
       <c r="E18" s="1">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>105</v>
+        <v>179</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>106</v>
+        <v>180</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>108</v>
+        <v>182</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>107</v>
+        <v>181</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="L18" s="3">
-        <v>0.83899999999999997</v>
+        <v>0.97699999999999998</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>12</v>
@@ -1738,7 +1897,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1746,34 +1905,34 @@
         <v>15</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E19" s="1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="L19" s="3">
-        <v>0.52900000000000003</v>
+        <v>0.218</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>12</v>
@@ -1788,7 +1947,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1796,34 +1955,34 @@
         <v>15</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="E20" s="1">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>99</v>
+        <v>137</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>24</v>
+        <v>138</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>26</v>
       </c>
       <c r="L20" s="3">
-        <v>0.88300000000000001</v>
+        <v>0.34599999999999997</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>12</v>
@@ -1835,10 +1994,10 @@
         <v>12</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1846,51 +2005,539 @@
         <v>15</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>128</v>
+        <v>193</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>129</v>
+        <v>194</v>
       </c>
       <c r="E21" s="1">
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>130</v>
+        <v>195</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>126</v>
+        <v>196</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J21" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L21" s="3">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L25" s="3">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0.73670000000000002</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L28" s="3">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E29" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E30" s="1">
+        <v>2016</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L30" s="3">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E31" s="1">
+        <v>2013</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J31" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="K31" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L31" s="3">
         <v>6.3500000000000001E-2</v>
       </c>
-      <c r="M21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P21" s="1" t="s">
+      <c r="M31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P31" s="1" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q21">
-    <sortCondition descending="1" ref="E2:E21"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q31">
+    <sortCondition descending="1" ref="E2:E31"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" xr:uid="{AC19B82F-8925-462A-9174-A278DBF02EF5}"/>
@@ -1917,22 +2564,39 @@
     <hyperlink ref="H12" r:id="rId22" xr:uid="{2330D61A-F0FD-4E02-94D8-E7C2CC56A5F1}"/>
     <hyperlink ref="G13" r:id="rId23" xr:uid="{554203FF-5110-4910-8462-54CADC3F9269}"/>
     <hyperlink ref="H13" r:id="rId24" xr:uid="{CFEDC400-F789-4BCB-B7BD-78E7511F691E}"/>
-    <hyperlink ref="H20" r:id="rId25" xr:uid="{90A2C4AA-F241-4B05-AD23-2D240E9D5A92}"/>
-    <hyperlink ref="G20" r:id="rId26" xr:uid="{1893BB69-FDBB-4012-BC36-DCCB6BB0E0AB}"/>
-    <hyperlink ref="G18" r:id="rId27" xr:uid="{3B62FF72-D6D4-468A-9EFC-F614F9AE3AC6}"/>
-    <hyperlink ref="H18" r:id="rId28" xr:uid="{86DBA649-43A3-409E-9572-209818F37680}"/>
+    <hyperlink ref="H30" r:id="rId25" xr:uid="{90A2C4AA-F241-4B05-AD23-2D240E9D5A92}"/>
+    <hyperlink ref="G30" r:id="rId26" xr:uid="{1893BB69-FDBB-4012-BC36-DCCB6BB0E0AB}"/>
+    <hyperlink ref="G22" r:id="rId27" xr:uid="{3B62FF72-D6D4-468A-9EFC-F614F9AE3AC6}"/>
+    <hyperlink ref="H22" r:id="rId28" xr:uid="{86DBA649-43A3-409E-9572-209818F37680}"/>
     <hyperlink ref="G14" r:id="rId29" xr:uid="{3BC59268-AECA-408B-B063-A111B9EB45CF}"/>
     <hyperlink ref="H14" r:id="rId30" xr:uid="{38D898A3-3C77-455A-9847-BE2B2BB1902F}"/>
-    <hyperlink ref="H19" r:id="rId31" xr:uid="{8DE6708A-9AEB-4091-A1D2-7E975F353594}"/>
-    <hyperlink ref="G19" r:id="rId32" xr:uid="{05E0E395-F650-4732-996E-27BD921213DF}"/>
-    <hyperlink ref="G16" r:id="rId33" xr:uid="{BAAEA523-79B2-42F9-8E80-CF388F73F088}"/>
-    <hyperlink ref="H16" r:id="rId34" xr:uid="{1CE2F190-2B4B-4CD5-BB3E-354B8FF6AA6A}"/>
-    <hyperlink ref="H21" r:id="rId35" xr:uid="{D650CF35-7018-49CE-BF34-DFD26C54E828}"/>
-    <hyperlink ref="G21" r:id="rId36" xr:uid="{1DA923CC-042D-4668-8F96-7A01AA66AE2A}"/>
+    <hyperlink ref="H23" r:id="rId31" xr:uid="{8DE6708A-9AEB-4091-A1D2-7E975F353594}"/>
+    <hyperlink ref="G23" r:id="rId32" xr:uid="{05E0E395-F650-4732-996E-27BD921213DF}"/>
+    <hyperlink ref="G19" r:id="rId33" xr:uid="{BAAEA523-79B2-42F9-8E80-CF388F73F088}"/>
+    <hyperlink ref="H19" r:id="rId34" xr:uid="{1CE2F190-2B4B-4CD5-BB3E-354B8FF6AA6A}"/>
+    <hyperlink ref="H31" r:id="rId35" xr:uid="{D650CF35-7018-49CE-BF34-DFD26C54E828}"/>
+    <hyperlink ref="G31" r:id="rId36" xr:uid="{1DA923CC-042D-4668-8F96-7A01AA66AE2A}"/>
     <hyperlink ref="G15" r:id="rId37" xr:uid="{FC9D5A03-0E83-44CB-9A4F-B7AE01A2B95C}"/>
     <hyperlink ref="H15" r:id="rId38" xr:uid="{F1AEE821-F994-41B9-A25E-416A2A7496BD}"/>
-    <hyperlink ref="H17" r:id="rId39" xr:uid="{2DD4133B-0754-4376-8374-3A7B516B069E}"/>
-    <hyperlink ref="G17" r:id="rId40" xr:uid="{1C810D60-3A93-4FCF-9044-AD0B10BB6689}"/>
+    <hyperlink ref="H20" r:id="rId39" xr:uid="{2DD4133B-0754-4376-8374-3A7B516B069E}"/>
+    <hyperlink ref="G20" r:id="rId40" xr:uid="{1C810D60-3A93-4FCF-9044-AD0B10BB6689}"/>
+    <hyperlink ref="G16" r:id="rId41" xr:uid="{A737B05E-A2F3-442F-842E-B9B54F596923}"/>
+    <hyperlink ref="H16" r:id="rId42" xr:uid="{AD047997-4FB0-43CE-B333-A66050B4457D}"/>
+    <hyperlink ref="G24" r:id="rId43" xr:uid="{2052A88F-A690-4DBB-99EC-0C565664ACCD}"/>
+    <hyperlink ref="H24" r:id="rId44" xr:uid="{1348EE19-E4B8-47EA-8C0F-508051D56939}"/>
+    <hyperlink ref="G25" r:id="rId45" xr:uid="{5E24F633-8ACB-4FE6-BD0F-531B00CAC6BE}"/>
+    <hyperlink ref="H25" r:id="rId46" xr:uid="{4BC9A0D9-4A03-4834-A1C8-8033533FE5B8}"/>
+    <hyperlink ref="G26" r:id="rId47" xr:uid="{CEFE24D5-6A77-49B4-91B8-4C323559F861}"/>
+    <hyperlink ref="H26" r:id="rId48" xr:uid="{63236CC8-A0A9-4A7D-A113-232FE6427C7E}"/>
+    <hyperlink ref="G27" r:id="rId49" xr:uid="{ED41EE9D-D87E-4372-9AE6-48A39D7E1D26}"/>
+    <hyperlink ref="H27" r:id="rId50" xr:uid="{B9524600-D3F5-4DDF-A48D-3A295E178F5C}"/>
+    <hyperlink ref="G17" r:id="rId51" xr:uid="{AD2EBD7A-5EA2-4346-BDEF-C7BB8F08F6B0}"/>
+    <hyperlink ref="H17" r:id="rId52" xr:uid="{C40CF441-04BC-4D76-8D16-9D652DEA270B}"/>
+    <hyperlink ref="G18" r:id="rId53" xr:uid="{90ECAFAD-18D4-495F-805A-8DBF7950AF3C}"/>
+    <hyperlink ref="H18" r:id="rId54" xr:uid="{D2F7CE77-4659-445A-9E5F-F023C3B622A3}"/>
+    <hyperlink ref="G28" r:id="rId55" xr:uid="{5F2A6CB9-1514-45D5-AD00-44A5BBF7B484}"/>
+    <hyperlink ref="G29" r:id="rId56" xr:uid="{E4B65223-D90B-4A75-83A8-30CB84F2B0E7}"/>
+    <hyperlink ref="G21" r:id="rId57" xr:uid="{91A0ACD6-AE12-414E-8375-88F231C475FD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
